--- a/Week9/MarketExit1415-2.xlsx
+++ b/Week9/MarketExit1415-2.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\guanz\Desktop\JIW2\Week9\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{2B23F8EC-06E2-48C4-AB09-97BE7C1543EA}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDF074DF-39C6-42D4-90D5-0EC8866F92AC}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15240" windowHeight="7993" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15240" windowHeight="7993" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MarketExit1415-2" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="missing data 2015" sheetId="4" r:id="rId3"/>
     <sheet name="missing data 2014" sheetId="2" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="179017"/>
 </workbook>
 </file>
 
@@ -1393,7 +1393,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2227,11 +2227,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AB381"/>
   <sheetViews>
     <sheetView topLeftCell="I361" workbookViewId="0">
-      <selection activeCell="L381" sqref="L381:O381"/>
+      <selection activeCell="N383" sqref="N383"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
@@ -34064,16 +34064,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A20:AB28"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A20:O26"/>
   <sheetViews>
-    <sheetView topLeftCell="D8" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView tabSelected="1" topLeftCell="P6" workbookViewId="0">
+      <selection activeCell="X12" sqref="X12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <sheetData>
-    <row r="20" spans="1:28" x14ac:dyDescent="0.5">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A20">
         <v>230</v>
       </c>
@@ -34114,7 +34114,7 @@
         <v>-64.712147714681393</v>
       </c>
     </row>
-    <row r="21" spans="1:28" x14ac:dyDescent="0.5">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A21">
         <v>228</v>
       </c>
@@ -34161,7 +34161,7 @@
         <v>3.5782018659881398</v>
       </c>
     </row>
-    <row r="22" spans="1:28" x14ac:dyDescent="0.5">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A22">
         <v>282</v>
       </c>
@@ -34205,7 +34205,7 @@
         <v>50.590672414862603</v>
       </c>
     </row>
-    <row r="23" spans="1:28" x14ac:dyDescent="0.5">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A23">
         <v>563</v>
       </c>
@@ -34246,7 +34246,7 @@
         <v>13.036146532158099</v>
       </c>
     </row>
-    <row r="24" spans="1:28" x14ac:dyDescent="0.5">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A24">
         <v>577</v>
       </c>
@@ -34286,32 +34286,8 @@
       <c r="O24">
         <v>13.5028206837796</v>
       </c>
-      <c r="U24">
-        <v>458</v>
-      </c>
-      <c r="V24">
-        <v>9</v>
-      </c>
-      <c r="W24">
-        <v>103289.52</v>
-      </c>
-      <c r="X24">
-        <v>40406.559999999998</v>
-      </c>
-      <c r="Y24">
-        <v>225.522969432314</v>
-      </c>
-      <c r="Z24">
-        <v>88.223930131004295</v>
-      </c>
-      <c r="AA24">
-        <v>-108.549956331877</v>
-      </c>
-      <c r="AB24">
-        <v>137.29903930130999</v>
-      </c>
-    </row>
-    <row r="25" spans="1:28" x14ac:dyDescent="0.5">
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A25">
         <v>299</v>
       </c>
@@ -34354,29 +34330,8 @@
       <c r="O25">
         <v>-386.422601410033</v>
       </c>
-      <c r="U25">
-        <v>37</v>
-      </c>
-      <c r="W25">
-        <v>44598.83</v>
-      </c>
-      <c r="X25">
-        <v>11362466.140000001</v>
-      </c>
-      <c r="Y25">
-        <v>1205.37378378378</v>
-      </c>
-      <c r="Z25">
-        <v>307093.67945945897</v>
-      </c>
-      <c r="AA25">
-        <v>-7.5486486486486397</v>
-      </c>
-      <c r="AB25">
-        <v>-305888.30567567499</v>
-      </c>
-    </row>
-    <row r="26" spans="1:28" x14ac:dyDescent="0.5">
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.5">
       <c r="L26">
         <f>AVERAGE(L20:L25)</f>
         <v>317.93024894764238</v>
@@ -34392,76 +34347,6 @@
       <c r="O26">
         <f>AVERAGE(O20:O25)</f>
         <v>-61.737817937987664</v>
-      </c>
-      <c r="U26">
-        <v>18</v>
-      </c>
-      <c r="W26">
-        <v>73380.160000000003</v>
-      </c>
-      <c r="X26">
-        <v>193944.8322</v>
-      </c>
-      <c r="Y26">
-        <v>4076.6755555555501</v>
-      </c>
-      <c r="Z26">
-        <v>10774.7129</v>
-      </c>
-      <c r="AA26">
-        <v>6120.3333333333303</v>
-      </c>
-      <c r="AB26">
-        <v>-6698.0373444444404</v>
-      </c>
-    </row>
-    <row r="27" spans="1:28" x14ac:dyDescent="0.5">
-      <c r="U27">
-        <v>10</v>
-      </c>
-      <c r="V27">
-        <v>31026</v>
-      </c>
-      <c r="W27">
-        <v>2341.057143</v>
-      </c>
-      <c r="X27">
-        <v>1692.4134239999901</v>
-      </c>
-      <c r="Y27">
-        <v>234.10571429999999</v>
-      </c>
-      <c r="Z27">
-        <v>169.24134239999901</v>
-      </c>
-      <c r="AB27">
-        <v>64.864371899999995</v>
-      </c>
-    </row>
-    <row r="28" spans="1:28" x14ac:dyDescent="0.5">
-      <c r="U28">
-        <v>4</v>
-      </c>
-      <c r="V28">
-        <v>21590</v>
-      </c>
-      <c r="W28">
-        <v>1661.83</v>
-      </c>
-      <c r="X28">
-        <v>9672.7800000000007</v>
-      </c>
-      <c r="Y28">
-        <v>415.45749999999998</v>
-      </c>
-      <c r="Z28">
-        <v>2418.1950000000002</v>
-      </c>
-      <c r="AA28">
-        <v>-108.81</v>
-      </c>
-      <c r="AB28">
-        <v>-2002.7375</v>
       </c>
     </row>
   </sheetData>
@@ -34473,7 +34358,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AB19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -35768,10 +35653,10 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:AB88"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A72" workbookViewId="0">
       <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
